--- a/data/Tabellarische_Darstellung.xlsx
+++ b/data/Tabellarische_Darstellung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-makast\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suma3525\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F9B383-D11A-4FE4-B8CC-9E5C8C7C6C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39E80DE5-D481-4D46-99CB-EB33DBF0F63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3BF2A3B6-F95D-44C5-B263-B1FCB04FF02A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3BF2A3B6-F95D-44C5-B263-B1FCB04FF02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 1" sheetId="2" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>ANSI/PMI 99-001-2021, The Standard for Project Management</t>
   </si>
   <si>
-    <t>ANSI/PMI 19-2006-2019, The Stan­dard for Earned Value Management</t>
-  </si>
-  <si>
     <t>APM Body of Knowledge, 8. Auflage (2025)</t>
   </si>
   <si>
@@ -60,60 +57,9 @@
     <t>BS 10102-2:2020 Big data – Guidance on data-intensive projects</t>
   </si>
   <si>
-    <t>BS 202002:2023 Applying benefits management on port­folios, programmes and projects. Guide</t>
-  </si>
-  <si>
-    <t>DIN 69900:2009-01 Projektmanagement – Netzplan­tech­nik; Beschreibungen und Begriffe</t>
-  </si>
-  <si>
-    <t>DIN 69901-1:2009-01 Projektmanagement – Projekt­management­systeme – Teil 1: Grundlagen</t>
-  </si>
-  <si>
-    <t>DIN 69901-2:2009-01 Projektmanagement – Projekt­management­systeme – Teil 2: Prozesse, Prozess­modell</t>
-  </si>
-  <si>
-    <t>DIN 69901-3:2009-01 Projektmanagement – Projekt­management­systeme - Teil 3: Methoden</t>
-  </si>
-  <si>
-    <t>DIN 69901-4:2009-01 Projektmanagement – Pro­jekt­­management­systeme – Teil 4: Daten, Daten­modell</t>
-  </si>
-  <si>
-    <t>DIN 69901-5:2009-01 Projektmanagement – Projekt­management­systeme – Teil 5: Begriffe</t>
-  </si>
-  <si>
-    <t>DIN 69909-3:2015-11 Multiprojektmanagement – Manage­ment von Projektportfolios, Program­men und Projekten – Teil 3: Methoden</t>
-  </si>
-  <si>
-    <t>DIN 69909-4:2015-11 Multiprojektmanagement – Manage­ment von Projektportfolios, Pro­grammen und Projekten – Teil 4: Rollen</t>
-  </si>
-  <si>
     <t xml:space="preserve">DIN EN 12973:2020-05 Value Management; Deutsche Fassung EN 12973:2020 </t>
   </si>
   <si>
-    <t xml:space="preserve">DIN ISO 10006:2020-10 Qualitätsmanagement – Leitfaden für Qual­it­ätsmanagement in Projekten (ISO 10006:2017) </t>
-  </si>
-  <si>
-    <t>DIN ISO 21500:2024-12 Projekt-, Programm- und Portfolio­manage­ment – Kontext und Konzepte (ISO 21500:2021)</t>
-  </si>
-  <si>
-    <t>DIN ISO 21502:2024-12 Projekt-, Programm- und Portfoliomanage­ment – Leitlinien zum Projektmanagement (ISO 21502:2020)</t>
-  </si>
-  <si>
-    <t>DIN ISO 21503:2020-12 Projekt-, Programm- und Portfoliomanage­ment – Leitlinien zum Programm­manage­ment (ISO 21503:2017)</t>
-  </si>
-  <si>
-    <t>DIN ISO 21503:2025-03 – Entwurf Projekt-, Pro­gramm- und Portfolio­manage­ment – Leitlinien zum Programm­manage­ment (ISO 21503:2022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN ISO 21504:2017-09 Projekt-, Programm- und Portfoliomanage­ment – Leitlinien zum Portfolio­management (ISO 21504:2015) </t>
-  </si>
-  <si>
-    <t>DIN ISO 21504:2025-04 – Entwurf Projekt-, Pro­gramm- und Port­folio­manage­ment – Leitlinien zum Portfoliomanagement (ISO 21504:2022)</t>
-  </si>
-  <si>
-    <t>DIN ISO 21505:2018-01 Projekt-, Programm- und Portfolio­manage­ment – Leitlinien zu Governance (ISO 21505:2017)</t>
-  </si>
-  <si>
     <t>PM²-Agile 3.0.1 (2021)</t>
   </si>
   <si>
@@ -126,9 +72,6 @@
     <t>GAPPS A Guiding Framework for Project Sponsors, V1.1 (2017)</t>
   </si>
   <si>
-    <t>Kompetenzbasiertes Projektmanagement (PM4) – Handbuch für Praxis und Weiterbildung im Projekt­management in zwei Bänden (2019)</t>
-  </si>
-  <si>
     <t>IAPM Project Managers‘ Guide, Version 2024-06-14</t>
   </si>
   <si>
@@ -141,18 +84,6 @@
     <t>Complex Project Leadership Competency Standards, Version 1.0 (2023)</t>
   </si>
   <si>
-    <t>IDW PS 850 n. F. Projektbegleitende Prüfung bei Einsatz von Infor­ma­tionstechnologie, Stand: 24.01.2022</t>
-  </si>
-  <si>
-    <t>IDW EPS 850 n. F. – Entwurf einer Neufassung des IDW Prüfungs­standards: Projektbegleitende Prü­fung, Stand: 07.03.2025</t>
-  </si>
-  <si>
-    <t>Individual Competence Baseline für Programm­management (Ver­sion 4.0 / Deutsche Fassung) (nach GPM), 1. Auflage (2017)</t>
-  </si>
-  <si>
-    <t>Individual Competence Baseline für Port­folio­management (Ver­sion 4.0 / Deutsche Fassung) (nach GPM), 1. Auflage (2017)</t>
-  </si>
-  <si>
     <t>Individual Competence Baseline Reference Guide ICB4 for PMO (Version 1.0) (2023)</t>
   </si>
   <si>
@@ -219,9 +150,6 @@
     <t>Process Groups: A Practice Guide (2022)</t>
   </si>
   <si>
-    <t>HERMES 2022 Referenzhandbuch – Projekt­ma­nagement – Ergebnis­ori­en­tierte Projekt­manage­ment­methode für verschiedene Arten von Pro­jek­ten, Ausgabe 2022, 1. Aufl. 2023</t>
-  </si>
-  <si>
     <t>HERMES Programmmanagement – Anhang zum Referenzhandbuch – Ergebnisorientierte Programmmanagementmethode, Ausgabe 2022</t>
   </si>
   <si>
@@ -231,12 +159,6 @@
     <t>Der Scrum Guide – Der gültige Leitfaden für Scrum: Die Spielregeln (2020)</t>
   </si>
   <si>
-    <t>VDI-MT 2807 – Teamarbeit – Anwendung in Wert­analyse-/Value-Management-Projekten</t>
-  </si>
-  <si>
-    <t>V-Modell XT – Das deutsche Referenzmodell für Systementwick­lungs­projekte, Version 2.4 (2024)</t>
-  </si>
-  <si>
     <t>Programmmanagement</t>
   </si>
   <si>
@@ -439,11 +361,6 @@
   </si>
   <si>
     <t>Herausgabejahr</t>
-  </si>
-  <si>
-    <t>DIN EN 62198*VDE 0050-6 – Risiko­management für Projekte – Anwen­dungsleitfaden (IEC 62198:2013);
-Deutsche Fassung EN 
-62198:2014</t>
   </si>
   <si>
     <t>Standard</t>
@@ -834,7 +751,7 @@
   </si>
   <si>
     <r>
-      <t>IPMA Individual Competence Base­line</t>
+      <t>IPMA Organisational Competence Baseline (IPMA OCB</t>
     </r>
     <r>
       <rPr>
@@ -851,7 +768,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (IPMA ICB</t>
+      <t>) (Version 1.1) (2016)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IPMA Individual Competence Baseline Reference Guide for Consultants, Coaches and Trainers (IPMA ICB4CCT</t>
     </r>
     <r>
       <rPr>
@@ -868,12 +790,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>) für Projekt­manage­ment (Ver­s. 4.0 / Deutsche Fassung) (nach GPM), 1. akt. Auflage (2017)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IPMA Organisational Competence Baseline (IPMA OCB</t>
+      <t>) (2018)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IPMA Project Excellence Baseline</t>
     </r>
     <r>
       <rPr>
@@ -890,12 +812,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>) (Version 1.1) (2016)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IPMA Individual Competence Baseline Reference Guide for Consultants, Coaches and Trainers (IPMA ICB4CCT</t>
+      <t xml:space="preserve"> (IPMA PEB) (Version 1.0) (2016)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IPMA Research Evaluation Baseline</t>
     </r>
     <r>
       <rPr>
@@ -912,120 +834,154 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> (IPMA REB) (Version 1.0) (2022)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A Guide to the Project Management Body of Knowledge PMBOK</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>®</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Guide, 7. Auflage (2021)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Agile: Praxis – Ein Leitfaden (PMI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>®</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>) (2018)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>IPMA Project Excellence Baseline</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>®</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (IPMA PEB) (Version 1.0) (2016)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IPMA Research Evaluation Baseline</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>®</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (IPMA REB) (Version 1.0) (2022)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A Guide to the Project Management Body of Knowledge PMBOK</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>®</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Guide, 7. Auflage (2021)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Agile: Praxis – Ein Leitfaden (PMI</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>®</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) (2018)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN/TS 69901-4:2025-02 – Entwurf Projekt­manage­ment – Projekt­managementsysteme – Teil 4: Daten, Datenmodell </t>
-  </si>
-  <si>
     <t>DIIR Prüfungsstandard Nr. 4 – Standard zur Prüfung von Projekten, Definitionen und Grundsätze</t>
+  </si>
+  <si>
+    <t>ANSI/PMI 19-2006-2019, The Standard for Earned Value Management</t>
+  </si>
+  <si>
+    <t>BS 202002:2023 Applying benefits management on portfolios, programmes and projects. Guide</t>
+  </si>
+  <si>
+    <t>DIN EN 62198*VDE 0050-6 – Risikomanagement für Projekte – Anwendungsleitfaden (IEC 62198:2013);
+Deutsche Fassung EN 
+62198:2014</t>
+  </si>
+  <si>
+    <t>DIN 69900:2009-01 Projektmanagement – Netzplantechnik; Beschreibungen und Begriffe</t>
+  </si>
+  <si>
+    <t>DIN 69901-1:2009-01 Projektmanagement – Projektmanagementsysteme – Teil 1: Grundlagen</t>
+  </si>
+  <si>
+    <t>DIN 69901-2:2009-01 Projektmanagement – Projektmanagementsysteme – Teil 2: Prozesse, Prozessmodell</t>
+  </si>
+  <si>
+    <t>DIN 69901-3:2009-01 Projektmanagement – Projektmanagementsysteme - Teil 3: Methoden</t>
+  </si>
+  <si>
+    <t>DIN 69901-4:2009-01 Projektmanagement – Projektmanagementsysteme – Teil 4: Daten, Datenmodell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN/TS 69901-4:2025-02 – Entwurf Projektmanagement – Projektmanagementsysteme – Teil 4: Daten, Datenmodell </t>
+  </si>
+  <si>
+    <t>DIN 69901-5:2009-01 Projektmanagement – Projektmanagementsysteme – Teil 5: Begriffe</t>
+  </si>
+  <si>
+    <t>DIN 69909-3:2015-11 Multiprojektmanagement – Management von Projektportfolios, Programmen und Projekten – Teil 3: Methoden</t>
+  </si>
+  <si>
+    <t>DIN 69909-4:2015-11 Multiprojektmanagement – Management von Projektportfolios, Programmen und Projekten – Teil 4: Rollen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN ISO 10006:2020-10 Qualitätsmanagement – Leitfaden für Qualitätsmanagement in Projekten (ISO 10006:2017) </t>
+  </si>
+  <si>
+    <t>DIN ISO 21500:2024-12 Projekt-, Programm- und Portfoliomanagement – Kontext und Konzepte (ISO 21500:2021)</t>
+  </si>
+  <si>
+    <t>DIN ISO 21502:2024-12 Projekt-, Programm- und Portfoliomanagement – Leitlinien zum Projektmanagement (ISO 21502:2020)</t>
+  </si>
+  <si>
+    <t>DIN ISO 21503:2020-12 Projekt-, Programm- und Portfoliomanagement – Leitlinien zum Programmmanagement (ISO 21503:2017)</t>
+  </si>
+  <si>
+    <t>DIN ISO 21503:2025-03 – Entwurf Projekt-, Programm- und Portfoliomanagement – Leitlinien zum Programmmanagement (ISO 21503:2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN ISO 21504:2017-09 Projekt-, Programm- und Portfoliomanagement – Leitlinien zum Portfoliomanagement (ISO 21504:2015) </t>
+  </si>
+  <si>
+    <t>DIN ISO 21504:2025-04 – Entwurf Projekt-, Programm- und Portfoliomanagement – Leitlinien zum Portfoliomanagement (ISO 21504:2022)</t>
+  </si>
+  <si>
+    <t>DIN ISO 21505:2018-01 Projekt-, Programm- und Portfoliomanagement – Leitlinien zu Governance (ISO 21505:2017)</t>
+  </si>
+  <si>
+    <t>Kompetenzbasiertes Projektmanagement (PM4) – Handbuch für Praxis und Weiterbildung im Projektmanagement in zwei Bänden (2019)</t>
+  </si>
+  <si>
+    <t>IDW PS 850 n. F. Projektbegleitende Prüfung bei Einsatz von Informationstechnologie, Stand: 24.01.2022</t>
+  </si>
+  <si>
+    <t>IDW EPS 850 n. F. – Entwurf einer Neufassung des IDW Prüfungsstandards: Projektbegleitende Prüfung, Stand: 07.03.2025</t>
+  </si>
+  <si>
+    <t>IPMA Individual Competence Baseline® (IPMA ICB®) für Projektmanagement (Vers. 4.0 / Deutsche Fassung) (nach GPM), 1. akt. Auflage (2017)</t>
+  </si>
+  <si>
+    <t>Individual Competence Baseline für Programmmanagement (Version 4.0 / Deutsche Fassung) (nach GPM), 1. Auflage (2017)</t>
+  </si>
+  <si>
+    <t>Individual Competence Baseline für Portfoliomanagement (Version 4.0 / Deutsche Fassung) (nach GPM), 1. Auflage (2017)</t>
+  </si>
+  <si>
+    <t>HERMES 2022 Referenzhandbuch – Projektmanagement – Ergebnisorientierte Projektmanagementmethode für verschiedene Arten von Projekten, Ausgabe 2022, 1. Aufl. 2023</t>
+  </si>
+  <si>
+    <t>VDI-MT 2807 – Teamarbeit – Anwendung in Wertanalyse-/Value-Management-Projekten</t>
+  </si>
+  <si>
+    <t>V-Modell XT – Das deutsche Referenzmodell für Systementwicklungsprojekte, Version 2.4 (2024)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1054,14 +1010,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,18 +1026,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1102,17 +1046,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1138,49 +1071,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1812,2131 +1724,2131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C876F68F-E5AF-4D2C-A2F8-1E598695C57F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" customWidth="1"/>
+    <col min="1" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="6" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="14.5" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="75.5" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3">
         <v>2024</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75.5" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C3" s="4">
         <v>2017</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75.5" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>136</v>
+      <c r="B4" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C4" s="3">
         <v>2021</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75.5" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4">
         <v>2019</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3">
         <v>2025</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="38" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40" thickBot="1">
+      <c r="A9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4">
         <v>2020</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="3">
         <v>2021</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>139</v>
+      <c r="D10" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="4">
         <v>2023</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>139</v>
+      <c r="D11" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C12" s="3">
         <v>2018</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38" thickBot="1">
+      <c r="A13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4">
         <v>2021</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38" thickBot="1">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="4">
         <v>2020</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>140</v>
+      <c r="D15" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="3">
         <v>2023</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>140</v>
+      <c r="D16" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75.5" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C17" s="4">
         <v>2019</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="11">
+        <v>121</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="113" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="3">
         <v>2014</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>142</v>
+      <c r="D18" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="63" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C19" s="4">
         <v>2009</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="3">
         <v>2009</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>143</v>
+      <c r="D20" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="63" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="4">
         <v>2009</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>143</v>
+      <c r="D21" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="3">
         <v>2009</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>143</v>
+      <c r="D22" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="63" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4">
         <v>2009</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75.5" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C24" s="3">
         <v>2025</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="50.5" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C25" s="4">
         <v>2009</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="88" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="3">
         <v>2015</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>143</v>
+      <c r="D26" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75.5" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4">
         <v>2015</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="3">
         <v>2020</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>143</v>
+      <c r="D28" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="11">
+    </row>
+    <row r="29" spans="1:7" ht="75.5" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="4">
         <v>2020</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>143</v>
+      <c r="D29" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="63" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="3">
         <v>2024</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>143</v>
+      <c r="D30" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75.5" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="4">
         <v>2024</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>143</v>
+      <c r="D31" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75.5" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="3">
         <v>2020</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>143</v>
+      <c r="D32" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="88" thickBot="1">
+      <c r="A33" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="4">
         <v>2025</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>143</v>
+      <c r="D33" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="75.5" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="3">
         <v>2017</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>143</v>
+      <c r="D34" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="88" thickBot="1">
+      <c r="A35" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="4">
         <v>2025</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>143</v>
+      <c r="D35" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="63" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="3">
         <v>2018</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>143</v>
+      <c r="D36" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="3">
+    <row r="37" spans="1:7" ht="40" thickBot="1">
+      <c r="A37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="4">
         <v>2021</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>149</v>
+      <c r="D37" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="40" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="3">
         <v>2021</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>149</v>
+      <c r="D38" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="27.5" thickBot="1">
+      <c r="A39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="4">
         <v>2022</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>149</v>
+      <c r="D39" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="25.5" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="3">
         <v>2021</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>149</v>
+      <c r="D40" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="50.5" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4">
         <v>2021</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="63" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="3">
         <v>2011</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>150</v>
+      <c r="D42" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="63" thickBot="1">
+      <c r="A43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="4">
         <v>2022</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>150</v>
+      <c r="D43" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="38" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="3">
         <v>2019</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>150</v>
+      <c r="D44" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="38" thickBot="1">
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="75.5" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="52.5" thickBot="1">
+      <c r="A47" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="3">
-        <v>2025</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:7" ht="50.5" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C48" s="3">
         <v>2024</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="52.5" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4">
         <v>2024</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="38" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="3">
         <v>2024</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>152</v>
+      <c r="D50" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="38" thickBot="1">
+      <c r="A51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="4">
         <v>2024</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>152</v>
+      <c r="D51" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="38" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C52" s="3">
         <v>2020</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="4">
         <v>2023</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>153</v>
+      <c r="D53" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="63" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C54" s="3">
         <v>2022</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="88" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C55" s="4">
         <v>2025</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="92" thickBot="1" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="88" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C56" s="3">
         <v>2017</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="75.5" thickBot="1">
+      <c r="A57" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="4">
         <v>2017</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>146</v>
+      <c r="D57" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="75.5" thickBot="1">
       <c r="A58" s="2" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C58" s="3">
         <v>2017</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="52.5" thickBot="1">
+      <c r="A59" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="4">
         <v>2016</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>146</v>
+      <c r="D59" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="4">
-        <v>2023</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="77.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="3">
+    </row>
+    <row r="61" spans="1:7" ht="77.5" thickBot="1">
+      <c r="A61" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="4">
         <v>2018</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>146</v>
+      <c r="D61" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="38" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="3">
         <v>2018</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>146</v>
+      <c r="D62" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="40" thickBot="1">
+      <c r="A63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="4">
         <v>2016</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>146</v>
+      <c r="D63" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="50.5" thickBot="1">
       <c r="A64" s="2" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C64" s="3">
         <v>2022</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="4">
         <v>2017</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>144</v>
+      <c r="D65" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="3">
         <v>2021</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>144</v>
+      <c r="D66" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="50.5" thickBot="1">
       <c r="A67" s="5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C67" s="4">
         <v>2020</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="63" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="3">
         <v>2022</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>144</v>
+      <c r="D68" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A69" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="4">
         <v>2022</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>144</v>
+      <c r="D69" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="3">
         <v>2017</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>144</v>
+      <c r="D70" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="38" thickBot="1">
       <c r="A71" s="5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C71" s="4">
         <v>2024</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="3">
         <v>2018</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>144</v>
+      <c r="D72" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="50.5" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C73" s="4">
         <v>2018</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="63" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C74" s="3">
         <v>2024</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="63" thickBot="1">
       <c r="A75" s="5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C75" s="4">
         <v>2025</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="25.5" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="52.5" thickBot="1">
+      <c r="A77" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="38" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="4">
+      <c r="G78" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="38" thickBot="1">
+      <c r="A79" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="4">
         <v>2018</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="4">
-        <v>2025</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
+      <c r="D79" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="38" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="38" thickBot="1">
+      <c r="A81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="38" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C80" s="4">
-        <v>2020</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" s="4">
+    </row>
+    <row r="84" spans="1:7" ht="38" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="3">
         <v>2016</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>145</v>
+      <c r="D84" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" ht="25.5" thickBot="1">
       <c r="A85" s="5" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C85" s="4">
         <v>2022</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="27.5" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="100.5" thickBot="1">
+      <c r="A87" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="113" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="B87" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C87" s="4">
         <v>2022</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="88" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="3">
         <v>2022</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>156</v>
+      <c r="D88" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="75.5" thickBot="1">
       <c r="A89" s="5" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C89" s="4">
         <v>2022</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C90" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="50.5" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="3">
         <v>2020</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>157</v>
+      <c r="D90" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="50.5" thickBot="1">
       <c r="A91" s="5" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C91" s="4">
         <v>2019</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
-        <v>65</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="62.5">
+      <c r="A92" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C92" s="3">
         <v>2024</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
